--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,120 +46,132 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>missing</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
@@ -175,37 +187,34 @@
     <t>much</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
@@ -214,40 +223,34 @@
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>fun</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>fun</t>
+    <t>game</t>
   </si>
   <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -611,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +622,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7815533980582524</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>0.7419354838709677</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="L5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,16 +854,16 @@
         <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>0.6875</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.734375</v>
+        <v>0.7669902912621359</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.625</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.704225352112676</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K8">
-        <v>0.4339622641509434</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="L8">
-        <v>529</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>530</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>690</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6891891891891891</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="C9">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D9">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>0.4203730272596843</v>
+        <v>0.4421657095980312</v>
       </c>
       <c r="L9">
-        <v>293</v>
+        <v>539</v>
       </c>
       <c r="M9">
-        <v>293</v>
+        <v>540</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>404</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6444444444444445</v>
+        <v>0.6722689075630253</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0.4202898550724637</v>
+        <v>0.4088952654232424</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>40</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6181818181818182</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K11">
-        <v>0.3838174273858921</v>
+        <v>0.3941908713692946</v>
       </c>
       <c r="L11">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M11">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6111111111111112</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>0.3416666666666667</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,37 +1183,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5966386554621849</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D13">
-        <v>71</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>48</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="K13">
-        <v>0.290519877675841</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>232</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,37 +1233,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5797101449275363</v>
+        <v>0.5436046511627907</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D14">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>0.2891566265060241</v>
+        <v>0.2844036697247707</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>118</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1283,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5783132530120482</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>0.2433862433862434</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1333,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5473684210526316</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C16">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K16">
-        <v>0.1720430107526882</v>
+        <v>0.234375</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>154</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5196850393700787</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="C17">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,31 +1401,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K17">
-        <v>0.1566265060240964</v>
+        <v>0.1631578947368421</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>210</v>
+        <v>954</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1433,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="C18">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,31 +1451,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K18">
-        <v>0.1559471365638767</v>
+        <v>0.1485943775100401</v>
       </c>
       <c r="L18">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>958</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1483,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.46875</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,31 +1501,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K19">
-        <v>0.1089385474860335</v>
+        <v>0.1000649772579597</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>319</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1533,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4549763033175355</v>
+        <v>0.4739336492890995</v>
       </c>
       <c r="C20">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,31 +1551,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K20">
-        <v>0.1071428571428571</v>
+        <v>0.09749303621169916</v>
       </c>
       <c r="L20">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1375</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1583,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3931623931623932</v>
+        <v>0.4257425742574257</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D21">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1598,31 +1601,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K21">
-        <v>0.08310991957104558</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>342</v>
+        <v>702</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,13 +1633,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3910891089108911</v>
+        <v>0.4140625</v>
       </c>
       <c r="C22">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D22">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1648,31 +1651,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>123</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22">
-        <v>0.05080213903743316</v>
-      </c>
-      <c r="L22">
-        <v>38</v>
-      </c>
-      <c r="M22">
-        <v>42</v>
-      </c>
-      <c r="N22">
-        <v>0.9</v>
-      </c>
-      <c r="O22">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>710</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,13 +1659,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3132911392405063</v>
+        <v>0.335</v>
       </c>
       <c r="C23">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1698,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>217</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1706,13 +1685,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.31</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1724,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>138</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1732,13 +1711,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3092783505154639</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1750,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1758,13 +1737,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3061224489795918</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1776,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>68</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1784,13 +1763,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3043478260869565</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C27">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D27">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1802,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1810,13 +1789,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2838038632986627</v>
+        <v>0.274888558692422</v>
       </c>
       <c r="C28">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D28">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E28">
         <v>0.01</v>
@@ -1828,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1836,25 +1815,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2476190476190476</v>
+        <v>0.2716763005780347</v>
       </c>
       <c r="C29">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D29">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E29">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F29">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>237</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1862,13 +1841,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.239193083573487</v>
+        <v>0.2690909090909091</v>
       </c>
       <c r="C30">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D30">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E30">
         <v>0.01</v>
@@ -1880,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>264</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1888,25 +1867,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2367256637168142</v>
+        <v>0.2689873417721519</v>
       </c>
       <c r="C31">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D31">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E31">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>345</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1914,13 +1893,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2214285714285714</v>
+        <v>0.2616822429906542</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1932,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>109</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1940,13 +1919,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.21875</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C33">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1958,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>150</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1966,13 +1945,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2038216560509554</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1984,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1992,13 +1971,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2021857923497268</v>
+        <v>0.2457627118644068</v>
       </c>
       <c r="C35">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2010,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>146</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2018,13 +1997,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2</v>
+        <v>0.2444933920704846</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2036,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>140</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2044,25 +2023,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1962616822429906</v>
+        <v>0.2363112391930836</v>
       </c>
       <c r="C37">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D37">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>172</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2070,25 +2049,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1879699248120301</v>
+        <v>0.2265625</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D38">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E38">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>216</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2096,25 +2075,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1758241758241758</v>
+        <v>0.2229299363057325</v>
       </c>
       <c r="C39">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E39">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2122,25 +2101,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1707317073170732</v>
+        <v>0.2053231939163498</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D40">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E40">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F40">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2148,13 +2127,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.162303664921466</v>
+        <v>0.1832460732984293</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2166,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2174,25 +2153,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1255605381165919</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F42">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>390</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2200,25 +2179,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1210191082802548</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C43">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E43">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>276</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2226,25 +2205,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1171617161716172</v>
+        <v>0.1531531531531531</v>
       </c>
       <c r="C44">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D44">
         <v>73</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F44">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>535</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2252,25 +2231,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1163636363636364</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="C45">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E45">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="F45">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2278,13 +2257,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1042253521126761</v>
+        <v>0.1397260273972603</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D46">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2296,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2304,25 +2283,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09624413145539906</v>
+        <v>0.1369426751592357</v>
       </c>
       <c r="C47">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D47">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E47">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F47">
-        <v>0.84</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>385</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2330,25 +2309,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.09579439252336448</v>
+        <v>0.1355371900826446</v>
       </c>
       <c r="C48">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D48">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>387</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2356,25 +2335,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.09287531806615776</v>
+        <v>0.1263537906137184</v>
       </c>
       <c r="C49">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D49">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="E49">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F49">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>713</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2382,25 +2361,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07430340557275542</v>
+        <v>0.1045197740112994</v>
       </c>
       <c r="C50">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D50">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E50">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="F50">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>598</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2408,25 +2387,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.066</v>
+        <v>0.09069767441860466</v>
       </c>
       <c r="C51">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D51">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E51">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F51">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>467</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2434,25 +2413,77 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.06575963718820861</v>
+        <v>0.080370942812983</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D52">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E52">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F52">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>412</v>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.07476635514018691</v>
+      </c>
+      <c r="C53">
+        <v>32</v>
+      </c>
+      <c r="D53">
+        <v>33</v>
+      </c>
+      <c r="E53">
+        <v>0.03</v>
+      </c>
+      <c r="F53">
+        <v>0.97</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.07069408740359898</v>
+      </c>
+      <c r="C54">
+        <v>55</v>
+      </c>
+      <c r="D54">
+        <v>71</v>
+      </c>
+      <c r="E54">
+        <v>0.23</v>
+      </c>
+      <c r="F54">
+        <v>0.77</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>723</v>
       </c>
     </row>
   </sheetData>
